--- a/tut05/output/0501CS10.xlsx
+++ b/tut05/output/0501CS10.xlsx
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.571428571428571</v>
+        <v>5.57</v>
       </c>
       <c r="C6" t="n">
-        <v>5.840909090909091</v>
+        <v>5.84</v>
       </c>
       <c r="D6" t="n">
-        <v>5.627906976744186</v>
+        <v>5.63</v>
       </c>
       <c r="E6" t="n">
-        <v>2.212765957446809</v>
+        <v>2.21</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.571428571428571</v>
+        <v>5.57</v>
       </c>
       <c r="C8" t="n">
-        <v>5.698924731182796</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.676470588235294</v>
+        <v>5.68</v>
       </c>
       <c r="E8" t="n">
-        <v>4.786885245901639</v>
+        <v>4.79</v>
       </c>
       <c r="F8" t="n">
-        <v>4.211538461538462</v>
+        <v>4.21</v>
       </c>
     </row>
   </sheetData>
